--- a/biology/Botanique/Epithelantha_bokei/Epithelantha_bokei.xlsx
+++ b/biology/Botanique/Epithelantha_bokei/Epithelantha_bokei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epithelanha bokei
 Epithelantha bokei est une espèce de plantes à fleurs du genre Epithelantha et de la famille des Cactaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est une cactée miniature.
 L'espèce est cylindrique au sommet plat, la tige mesure de 2 à 6 cm, est couverte d'épines blanches et pâles.
@@ -545,11 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Texas et Mexique (Coahuila).
-Habitat
-Dans les semi-désert, parmi les roches calcaires.
 </t>
         </is>
       </c>
@@ -575,13 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Répartition</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Epithelantha bokei ont une croissance lente, et supportent, au sec, des températures allant jusqu'à -5°.
-Le substrat doit être bien drainant, minéral et calcaire de préférence et l'exposition est le plein soleil (après acclimatation).
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les semi-désert, parmi les roches calcaires.
 </t>
         </is>
       </c>
@@ -607,10 +626,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Epithelantha bokei ont une croissance lente, et supportent, au sec, des températures allant jusqu'à -5°.
+Le substrat doit être bien drainant, minéral et calcaire de préférence et l'exposition est le plein soleil (après acclimatation).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Epithelantha_bokei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epithelantha_bokei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Epithelantha tient son nom du grec, signifiant "fleur (anthos), au-dessus (epi), du tubercule (thele)", faisant référence  à la position de la fleur près de l'apex du tubercule.
 Bokei vient du botaniste Norman H. Boké</t>
